--- a/biology/Botanique/Eric_Hultén/Eric_Hultén.xlsx
+++ b/biology/Botanique/Eric_Hultén/Eric_Hultén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eric_Hult%C3%A9n</t>
+          <t>Eric_Hultén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eric Hultén, né le 18 mars 1894 à Halla (Södermanland) et mort le 1er février 1981, est un botaniste suédois, spécialiste de phytogéographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eric_Hult%C3%A9n</t>
+          <t>Eric_Hultén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hultén obtient en 1931 son doctorat de troisième cycle (appelé Lizenziat) de l'université de Stockholm et son doctorat d'État en 1937 de l'université de Lund. Il étudie dans sa thèse la Béringie, passage entre l'Asie et l'Amérique du Nord pendant la période glaciaire.
 De 1945 à 1961, il est professeur de botanique et directeur de la section botanique du Muséum suédois d'histoire naturelle. En 1953, il est élu à l'Académie royale des sciences de Suède.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eric_Hult%C3%A9n</t>
+          <t>Eric_Hultén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Flora of Kamtchatka and the adjacent Islands,. I : Pteridophyta, Gymnospermae and Monocotyledonae ; II : Dicotyledoneae, Salicaceae, Cruciferae, Almquist &amp; Wiksell, Stockholm, 1928.
 (de) Vegetationsbilder: Süd-Kamtchatka, Gustav Fischer, Jena, 1932.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eric_Hult%C3%A9n</t>
+          <t>Eric_Hultén</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,16 +604,18 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Angelica hultenii (Fernald) Hiroe[1]
-Arctanthemum hultenii (Á.Löve &amp; D.Löve) Tzvelev[2]
-Artemisia hultenii Maximova[3]
-Erigeron hultenii Spongberg[4]
-Saussurea hultenii Lipsch.[5]
-Taraxacum hultenii Dahlst.[6]
-Stellaria hultenii B.Boivin[7]
-Sedum hultenii Fröd.[8]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Angelica hultenii (Fernald) Hiroe
+Arctanthemum hultenii (Á.Löve &amp; D.Löve) Tzvelev
+Artemisia hultenii Maximova
+Erigeron hultenii Spongberg
+Saussurea hultenii Lipsch.
+Taraxacum hultenii Dahlst.
+Stellaria hultenii B.Boivin
+Sedum hultenii Fröd.</t>
         </is>
       </c>
     </row>
